--- a/rental2/レンタルアプリ (version 1).xlsx
+++ b/rental2/レンタルアプリ (version 1).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StudySession_2022\parsonal\t_mogi\rental2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git用\rental2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFAF7CB-D6D7-4743-9CBB-7E6D4A48446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4885F9DC-887B-41EA-8633-7DF9F05FEBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="1725" windowWidth="23505" windowHeight="13755" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="anime課題　select" sheetId="3" r:id="rId3"/>
-    <sheet name="anime課題　crud" sheetId="4" r:id="rId4"/>
+    <sheet name="anime　crud" sheetId="4" r:id="rId4"/>
     <sheet name="ドラクエ" sheetId="5" r:id="rId5"/>
     <sheet name="要件定義" sheetId="8" r:id="rId6"/>
     <sheet name="crud" sheetId="6" r:id="rId7"/>
@@ -11371,8 +11371,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:Q45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:H45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14881,7 +14881,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -16109,15 +16109,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="AF8:AG9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="T7:U8"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="U38:V39"/>
-    <mergeCell ref="AF8:AG9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="U22:V23"/>
-    <mergeCell ref="T7:U8"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19182,7 +19182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD05BC67-DDA9-4B83-9A8C-D1412B6F76B1}">
   <dimension ref="B2:BG147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="Z73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AN95" sqref="AN95"/>
     </sheetView>
   </sheetViews>
@@ -21877,7 +21877,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
